--- a/espn_scrapper/IPL/Delhi Capitals/Shreyas Iyer .xlsx
+++ b/espn_scrapper/IPL/Delhi Capitals/Shreyas Iyer .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1032,9 +1032,254 @@
         <v>80.95</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v xml:space="preserve"> Nov 8 2020</v>
+      </c>
+      <c r="B19" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Capitals won by 17 runs</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="F19" t="str">
+        <v xml:space="preserve">Shreyas Iyer </v>
+      </c>
+      <c r="G19" t="str">
+        <v>21</v>
+      </c>
+      <c r="H19" t="str">
+        <v>20</v>
+      </c>
+      <c r="I19" t="str">
+        <v>1</v>
+      </c>
+      <c r="J19" t="str">
+        <v>0</v>
+      </c>
+      <c r="K19" t="str">
+        <v>105.00</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v xml:space="preserve"> Oct 17 2020</v>
+      </c>
+      <c r="B20" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Capitals won by 5 wickets (with 1 ball remaining)</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="F20" t="str">
+        <v xml:space="preserve">Shreyas Iyer </v>
+      </c>
+      <c r="G20" t="str">
+        <v>23</v>
+      </c>
+      <c r="H20" t="str">
+        <v>23</v>
+      </c>
+      <c r="I20" t="str">
+        <v>1</v>
+      </c>
+      <c r="J20" t="str">
+        <v>1</v>
+      </c>
+      <c r="K20" t="str">
+        <v>100.00</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v xml:space="preserve"> Sep 20 2020</v>
+      </c>
+      <c r="B21" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Match tied (Capitals won the one-over eliminator)</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="F21" t="str">
+        <v xml:space="preserve">Shreyas Iyer </v>
+      </c>
+      <c r="G21" t="str">
+        <v>39</v>
+      </c>
+      <c r="H21" t="str">
+        <v>32</v>
+      </c>
+      <c r="I21" t="str">
+        <v>0</v>
+      </c>
+      <c r="J21" t="str">
+        <v>3</v>
+      </c>
+      <c r="K21" t="str">
+        <v>121.87</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v xml:space="preserve"> Nov 5 2020</v>
+      </c>
+      <c r="B22" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Mumbai won by 57 runs</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="F22" t="str">
+        <v xml:space="preserve">Shreyas Iyer </v>
+      </c>
+      <c r="G22" t="str">
+        <v>12</v>
+      </c>
+      <c r="H22" t="str">
+        <v>8</v>
+      </c>
+      <c r="I22" t="str">
+        <v>3</v>
+      </c>
+      <c r="J22" t="str">
+        <v>0</v>
+      </c>
+      <c r="K22" t="str">
+        <v>150.00</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v xml:space="preserve"> Oct 9 2020</v>
+      </c>
+      <c r="B23" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Capitals won by 46 runs</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="F23" t="str">
+        <v xml:space="preserve">Shreyas Iyer </v>
+      </c>
+      <c r="G23" t="str">
+        <v>22</v>
+      </c>
+      <c r="H23" t="str">
+        <v>18</v>
+      </c>
+      <c r="I23" t="str">
+        <v>4</v>
+      </c>
+      <c r="J23" t="str">
+        <v>0</v>
+      </c>
+      <c r="K23" t="str">
+        <v>122.22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v xml:space="preserve"> Oct 14 2020</v>
+      </c>
+      <c r="B24" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Capitals won by 13 runs</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="F24" t="str">
+        <v xml:space="preserve">Shreyas Iyer </v>
+      </c>
+      <c r="G24" t="str">
+        <v>53</v>
+      </c>
+      <c r="H24" t="str">
+        <v>43</v>
+      </c>
+      <c r="I24" t="str">
+        <v>3</v>
+      </c>
+      <c r="J24" t="str">
+        <v>2</v>
+      </c>
+      <c r="K24" t="str">
+        <v>123.25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v xml:space="preserve"> Oct 11 2020</v>
+      </c>
+      <c r="B25" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Mumbai won by 5 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="F25" t="str">
+        <v xml:space="preserve">Shreyas Iyer </v>
+      </c>
+      <c r="G25" t="str">
+        <v>42</v>
+      </c>
+      <c r="H25" t="str">
+        <v>33</v>
+      </c>
+      <c r="I25" t="str">
+        <v>5</v>
+      </c>
+      <c r="J25" t="str">
+        <v>0</v>
+      </c>
+      <c r="K25" t="str">
+        <v>127.27</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K25"/>
   </ignoredErrors>
 </worksheet>
 </file>